--- a/Table1.xlsx
+++ b/Table1.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PSD\vejovis\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BDF3B62-C2CD-4865-8208-4470BDA264A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="6675" windowHeight="6990"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -34,8 +40,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -562,6 +568,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -608,7 +622,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -640,9 +654,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -674,6 +706,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -849,16 +899,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -920,7 +970,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -982,7 +1032,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1044,7 +1094,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1106,7 +1156,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1168,7 +1218,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1230,7 +1280,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1292,7 +1342,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1354,7 +1404,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1416,7 +1466,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1478,7 +1528,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1540,7 +1590,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1602,7 +1652,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1664,7 +1714,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1726,7 +1776,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1788,7 +1838,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1850,7 +1900,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1912,7 +1962,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1974,7 +2024,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2036,7 +2086,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2098,7 +2148,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2160,7 +2210,7 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2222,7 +2272,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2284,7 +2334,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2346,7 +2396,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2408,7 +2458,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2470,7 +2520,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2532,7 +2582,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2594,7 +2644,7 @@
         <v>7.13</v>
       </c>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2656,7 +2706,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2718,7 +2768,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2780,7 +2830,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2842,7 +2892,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2904,7 +2954,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2966,7 +3016,7 @@
         <v>10.220000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3028,7 +3078,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3090,7 +3140,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3152,7 +3202,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3214,7 +3264,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3276,7 +3326,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="40" spans="1:20">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3338,7 +3388,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3400,7 +3450,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3462,7 +3512,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="43" spans="1:20">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3524,7 +3574,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3586,7 +3636,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="45" spans="1:20">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3648,7 +3698,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="46" spans="1:20">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3710,7 +3760,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="47" spans="1:20">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3772,7 +3822,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="48" spans="1:20">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3834,7 +3884,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="49" spans="1:20">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3896,7 +3946,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="50" spans="1:20">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3958,7 +4008,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="51" spans="1:20">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4020,7 +4070,7 @@
         <v>1.19</v>
       </c>
     </row>
-    <row r="52" spans="1:20">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -4082,7 +4132,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="53" spans="1:20">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -4144,7 +4194,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="54" spans="1:20">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4206,7 +4256,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="55" spans="1:20">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -4268,7 +4318,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="56" spans="1:20">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
